--- a/excels/pings/alpha01_count20_rhodes.xlsx
+++ b/excels/pings/alpha01_count20_rhodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>ertt</t>
+  </si>
+  <si>
+    <t>rttAvg</t>
   </si>
   <si>
     <t>throughput</t>
@@ -875,21 +878,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,10 +918,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -935,18 +942,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.517379045486</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.540630102158</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -955,24 +965,30 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.47801494598400002</v>
+        <v>0.50115513801599998</v>
       </c>
       <c r="H3" s="1">
-        <v>13.7975873653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -981,24 +997,30 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.54750609397899996</v>
+        <v>0.51704907417299995</v>
       </c>
       <c r="H4" s="1">
-        <v>4.5202670095700004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1007,24 +1029,30 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.470112085342</v>
+        <v>0.50659108161900002</v>
       </c>
       <c r="H5" s="1">
-        <v>4.5123714316200001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1033,24 +1061,27 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.47458910942100002</v>
+        <v>0.50315499305699996</v>
       </c>
       <c r="H6" s="1">
-        <v>4.5208892265399996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I6" s="1">
+        <v>22.963540395500001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1059,24 +1090,27 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>0.47380113601700002</v>
+        <v>0.51522803306599996</v>
       </c>
       <c r="H7" s="1">
-        <v>4.2670996505199996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I7" s="1">
+        <v>24.817577911000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1085,24 +1119,27 @@
         <v>129</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>0.48010087013199998</v>
+        <v>0.50562000274700003</v>
       </c>
       <c r="H8" s="1">
-        <v>4.3679901802299996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>27.511624674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1111,24 +1148,27 @@
         <v>149</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F9" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>0.49342608451800002</v>
+        <v>0.49836277961699998</v>
       </c>
       <c r="H9" s="1">
-        <v>4.0130930674799998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I9" s="1">
+        <v>21.211831397299999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1146,18 +1186,21 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.51231591826900003</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.53990439298799997</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -1166,24 +1209,30 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.47826638806999999</v>
+        <v>0.50126935613199997</v>
       </c>
       <c r="H11" s="1">
-        <v>13.7903334703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1192,24 +1241,30 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.54090109627600003</v>
+        <v>0.51799775394000003</v>
       </c>
       <c r="H12" s="1">
-        <v>4.5754644447799997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1218,24 +1273,30 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.47373422515500002</v>
+        <v>0.506067266425</v>
       </c>
       <c r="H13" s="1">
-        <v>4.4778701451599998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -1244,24 +1305,27 @@
         <v>89</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.47482912945599998</v>
+        <v>0.50346239111199997</v>
       </c>
       <c r="H14" s="1">
-        <v>4.5186039750100004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I14" s="1">
+        <v>22.9495195913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.1</v>
@@ -1270,24 +1334,27 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>0.47497776538699998</v>
+        <v>0.51326151859000002</v>
       </c>
       <c r="H15" s="1">
-        <v>4.2565290614600002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I15" s="1">
+        <v>24.912664186600001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.1</v>
@@ -1296,24 +1363,27 @@
         <v>129</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>0.484466091323</v>
+        <v>0.50449874250399995</v>
       </c>
       <c r="H16" s="1">
-        <v>4.3286329504200003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I16" s="1">
+        <v>27.572769902699999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1322,24 +1392,27 @@
         <v>149</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F17" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>0.49342965595100002</v>
+        <v>0.49934568749699998</v>
       </c>
       <c r="H17" s="1">
-        <v>4.0130640208099999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I17" s="1">
+        <v>21.170078205599999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1357,18 +1430,21 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.50748648240100003</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.53832315789999996</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1377,24 +1453,30 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.47883766294899999</v>
+        <v>0.50172209175899996</v>
       </c>
       <c r="H19" s="1">
-        <v>13.773880982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -1403,24 +1485,30 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.53417306031300005</v>
+        <v>0.51867283107700002</v>
       </c>
       <c r="H20" s="1">
-        <v>4.6330935010100003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1429,24 +1517,30 @@
         <v>69</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0.47679542591700003</v>
+        <v>0.50586145390799997</v>
       </c>
       <c r="H21" s="1">
-        <v>4.4491205834900001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.2</v>
@@ -1455,24 +1549,27 @@
         <v>89</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.47488777010900002</v>
+        <v>0.50378353608000004</v>
       </c>
       <c r="H22" s="1">
-        <v>4.5180460034200003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I22" s="1">
+        <v>22.9348900486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0.2</v>
@@ -1481,24 +1578,27 @@
         <v>109</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G23" s="1">
-        <v>0.47579424063699999</v>
+        <v>0.511534824469</v>
       </c>
       <c r="H23" s="1">
-        <v>4.2492247472500004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I23" s="1">
+        <v>24.996757289800001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0.2</v>
@@ -1507,24 +1607,27 @@
         <v>129</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F24" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G24" s="1">
-        <v>0.48788358917800001</v>
+        <v>0.50366473971500003</v>
       </c>
       <c r="H24" s="1">
-        <v>4.2983120006000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I24" s="1">
+        <v>27.618426795400001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1533,24 +1636,27 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F25" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>0.49349176059599997</v>
+        <v>0.50041280165400004</v>
       </c>
       <c r="H25" s="1">
-        <v>4.0125589872200003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I25" s="1">
+        <v>21.124933696700001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0.3</v>
@@ -1568,18 +1674,21 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0.50289763646600005</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.53598956580699997</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0.3</v>
@@ -1588,24 +1697,30 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.47956719398300002</v>
+        <v>0.50246935802699999</v>
       </c>
       <c r="H27" s="1">
-        <v>13.752927768799999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.3</v>
@@ -1614,24 +1729,30 @@
         <v>49</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.527366385622</v>
+        <v>0.51905798357199995</v>
       </c>
       <c r="H28" s="1">
-        <v>4.6928924588800003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>0.3</v>
@@ -1640,24 +1761,30 @@
         <v>69</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.47948619388500002</v>
+        <v>0.50587717725000003</v>
       </c>
       <c r="H29" s="1">
-        <v>4.4241531260200002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>0.3</v>
@@ -1666,24 +1793,27 @@
         <v>89</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.47480151373099999</v>
+        <v>0.50412648406600002</v>
       </c>
       <c r="H30" s="1">
-        <v>4.5188667890999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I30" s="1">
+        <v>22.919287864200001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>0.3</v>
@@ -1692,24 +1822,27 @@
         <v>109</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G31" s="1">
-        <v>0.47636282907400002</v>
+        <v>0.51005928613700002</v>
       </c>
       <c r="H31" s="1">
-        <v>4.2441528568600004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I31" s="1">
+        <v>25.069069812199999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>0.3</v>
@@ -1718,24 +1851,27 @@
         <v>129</v>
       </c>
       <c r="D32">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G32" s="1">
-        <v>0.49029769651799998</v>
+        <v>0.50309099402199997</v>
       </c>
       <c r="H32" s="1">
-        <v>4.2771481513199996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I32" s="1">
+        <v>27.649923987000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>0.3</v>
@@ -1744,24 +1880,27 @@
         <v>149</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F33" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>0.493530717304</v>
+        <v>0.501543351724</v>
       </c>
       <c r="H33" s="1">
-        <v>4.0122422569999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I33" s="1">
+        <v>21.077315090700001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>0.4</v>
@@ -1779,18 +1918,21 @@
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0.498593428113</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.53304197667800002</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0.4</v>
@@ -1799,24 +1941,30 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0.48033045256599999</v>
+        <v>0.50345759243999999</v>
       </c>
       <c r="H35" s="1">
-        <v>13.7310739802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0.4</v>
@@ -1825,24 +1973,30 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0.52053217034499999</v>
+        <v>0.51913797152999996</v>
       </c>
       <c r="H36" s="1">
-        <v>4.75450678199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0.4</v>
@@ -1851,24 +2005,30 @@
         <v>69</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0.48199644929199997</v>
+        <v>0.50603170880600001</v>
       </c>
       <c r="H37" s="1">
-        <v>4.4011119722499998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0.4</v>
@@ -1877,24 +2037,27 @@
         <v>89</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F38" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.47464265195100003</v>
+        <v>0.50449888315799996</v>
       </c>
       <c r="H38" s="1">
-        <v>4.5203792431899998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I38" s="1">
+        <v>22.902369844599999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0.4</v>
@@ -1903,24 +2066,27 @@
         <v>109</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F39" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G39" s="1">
-        <v>0.476813152781</v>
+        <v>0.508835129389</v>
       </c>
       <c r="H39" s="1">
-        <v>4.2401444887200004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I39" s="1">
+        <v>25.129381039199998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>0.4</v>
@@ -1929,24 +2095,27 @@
         <v>129</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G40" s="1">
-        <v>0.49167818266199997</v>
+        <v>0.50276493201500005</v>
       </c>
       <c r="H40" s="1">
-        <v>4.2651391910500003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I40" s="1">
+        <v>27.667856004800001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>0.4</v>
@@ -1955,24 +2124,27 @@
         <v>149</v>
       </c>
       <c r="D41">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F41" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.49350551040399998</v>
+        <v>0.50275132206899997</v>
       </c>
       <c r="H41" s="1">
-        <v>4.0124471912599997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I41" s="1">
+        <v>21.026672217200002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -1990,18 +2162,21 @@
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0.49469274841200001</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.52974119130499997</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -2010,24 +2185,30 @@
         <v>29</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0.48102253202099998</v>
+        <v>0.50463105698800004</v>
       </c>
       <c r="H43" s="1">
-        <v>13.711318160999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.5</v>
@@ -2036,24 +2217,30 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F44" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0.51373050768399997</v>
+        <v>0.51888790009600005</v>
       </c>
       <c r="H44" s="1">
-        <v>4.8174552554999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>0.5</v>
@@ -2062,24 +2249,30 @@
         <v>69</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F45" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0.48451197842299998</v>
+        <v>0.50624566814000005</v>
       </c>
       <c r="H45" s="1">
-        <v>4.3782619172099997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0.5</v>
@@ -2088,24 +2281,27 @@
         <v>89</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F46" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.474511027955</v>
+        <v>0.50488017399399998</v>
       </c>
       <c r="H46" s="1">
-        <v>4.5216331453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I46" s="1">
+        <v>22.885073733199999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0.5</v>
@@ -2114,24 +2310,27 @@
         <v>109</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F47" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G47" s="1">
-        <v>0.47727481625200002</v>
+        <v>0.50787257761000004</v>
       </c>
       <c r="H47" s="1">
-        <v>4.2360430365799999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I47" s="1">
+        <v>25.177007809100001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -2140,24 +2339,27 @@
         <v>129</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G48" s="1">
-        <v>0.49201029384</v>
+        <v>0.50271019992699995</v>
       </c>
       <c r="H48" s="1">
-        <v>4.2622601854299997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I48" s="1">
+        <v>27.670868315900002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -2166,24 +2368,27 @@
         <v>149</v>
       </c>
       <c r="D49">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G49" s="1">
-        <v>0.49340845224199997</v>
+        <v>0.50406555425699995</v>
       </c>
       <c r="H49" s="1">
-        <v>4.0132364780099996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I49" s="1">
+        <v>20.971850122799999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>0.6</v>
@@ -2201,18 +2406,21 @@
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0.491494719498</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.52666648938799998</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0.6</v>
@@ -2221,24 +2429,30 @@
         <v>29</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0.48154773721799998</v>
+        <v>0.50593649208799996</v>
       </c>
       <c r="H51" s="1">
-        <v>13.696363764999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>0.6</v>
@@ -2247,24 +2461,30 @@
         <v>49</v>
       </c>
       <c r="D52">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0.507035099441</v>
+        <v>0.51824383727300005</v>
       </c>
       <c r="H52" s="1">
-        <v>4.8810698448399998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>0.6</v>
@@ -2273,24 +2493,30 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F53" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0.48718664074899998</v>
+        <v>0.50645753946299998</v>
       </c>
       <c r="H53" s="1">
-        <v>4.3542251903700002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>0.6</v>
@@ -2299,24 +2525,27 @@
         <v>89</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F54" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>0.47452285645999998</v>
+        <v>0.50520500733100004</v>
       </c>
       <c r="H54" s="1">
-        <v>4.5215204338500001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I54" s="1">
+        <v>22.870359241500001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>0.6</v>
@@ -2325,24 +2554,27 @@
         <v>109</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G55" s="1">
-        <v>0.47783683083700002</v>
+        <v>0.507227561396</v>
       </c>
       <c r="H55" s="1">
-        <v>4.2310607542999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I55" s="1">
+        <v>25.209024165300001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>0.6</v>
@@ -2351,24 +2583,27 @@
         <v>129</v>
       </c>
       <c r="D56">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G56" s="1">
-        <v>0.49130588258399999</v>
+        <v>0.50300216584500002</v>
       </c>
       <c r="H56" s="1">
-        <v>4.26837121353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I56" s="1">
+        <v>27.654806853299998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -2377,24 +2612,27 @@
         <v>149</v>
       </c>
       <c r="D57">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F57" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G57" s="1">
-        <v>0.493230806982</v>
+        <v>0.50550141456700004</v>
       </c>
       <c r="H57" s="1">
-        <v>4.0146819117300003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I57" s="1">
+        <v>20.912280265300002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>0.7</v>
@@ -2412,18 +2650,21 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0.48971195912100002</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.52509711078499999</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>0.7</v>
@@ -2432,24 +2673,30 @@
         <v>29</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0.48186013347500001</v>
+        <v>0.50730629206099997</v>
       </c>
       <c r="H59" s="1">
-        <v>13.687484232299999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>0.7</v>
@@ -2458,24 +2705,30 @@
         <v>49</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F60" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0.50053169367000006</v>
+        <v>0.51705570538099999</v>
       </c>
       <c r="H60" s="1">
-        <v>4.9444895607000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>0.7</v>
@@ -2484,24 +2737,30 @@
         <v>69</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F61" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>0.49000461773300003</v>
+        <v>0.50668038884400002</v>
       </c>
       <c r="H61" s="1">
-        <v>4.3291843929400002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0.7</v>
@@ -2510,24 +2769,27 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F62" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.47483712041499998</v>
+        <v>0.50537408408399997</v>
       </c>
       <c r="H62" s="1">
-        <v>4.5185279321399996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I62" s="1">
+        <v>22.8627077885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>0.7</v>
@@ -2536,24 +2798,27 @@
         <v>109</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F63" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G63" s="1">
-        <v>0.47847671296200001</v>
+        <v>0.507040994819</v>
       </c>
       <c r="H63" s="1">
-        <v>4.2254024222000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I63" s="1">
+        <v>25.218299867599999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>0.7</v>
@@ -2562,24 +2827,27 @@
         <v>129</v>
       </c>
       <c r="D64">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G64" s="1">
-        <v>0.48966700837400001</v>
+        <v>0.50376092640400005</v>
       </c>
       <c r="H64" s="1">
-        <v>4.28265709226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I64" s="1">
+        <v>27.613153410999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>0.7</v>
@@ -2588,24 +2856,27 @@
         <v>149</v>
       </c>
       <c r="D65">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F65" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>0.49285543635599999</v>
+        <v>0.50701265035599996</v>
       </c>
       <c r="H65" s="1">
-        <v>4.0177395906099997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I65" s="1">
+        <v>20.8499477252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>0.8</v>
@@ -2623,18 +2894,21 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>0.49091111407499999</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.52767688340999996</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>0.8</v>
@@ -2643,24 +2917,30 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F67" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0.48224803747299999</v>
+        <v>0.50875661866300004</v>
       </c>
       <c r="H67" s="1">
-        <v>13.6764744833</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>0.8</v>
@@ -2669,24 +2949,30 @@
         <v>49</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F68" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0.49432012132199998</v>
+        <v>0.51509830867999995</v>
       </c>
       <c r="H68" s="1">
-        <v>5.0066214734100001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>0.8</v>
@@ -2695,24 +2981,30 @@
         <v>69</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F69" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>0.49235348914799998</v>
+        <v>0.50710806058199998</v>
       </c>
       <c r="H69" s="1">
-        <v>4.3085311474700001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>0.8</v>
@@ -2721,24 +3013,27 @@
         <v>89</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F70" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>0.47593563465299998</v>
+        <v>0.50536296389199997</v>
       </c>
       <c r="H70" s="1">
-        <v>4.5080986494699999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I70" s="1">
+        <v>22.863210867900001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>0.8</v>
@@ -2747,24 +3042,27 @@
         <v>109</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G71" s="1">
-        <v>0.47903474882699998</v>
+        <v>0.50750466398299998</v>
       </c>
       <c r="H71" s="1">
-        <v>4.2204801778299998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I71" s="1">
+        <v>25.195259787800001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>0.8</v>
@@ -2773,24 +3071,27 @@
         <v>129</v>
       </c>
       <c r="D72">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F72" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G72" s="1">
-        <v>0.48739757197299999</v>
+        <v>0.50511775589100005</v>
       </c>
       <c r="H72" s="1">
-        <v>4.3025981392799997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I72" s="1">
+        <v>27.538979932899998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>0.8</v>
@@ -2799,24 +3100,27 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F73" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>0.49183628736399998</v>
+        <v>0.50837789280000001</v>
       </c>
       <c r="H73" s="1">
-        <v>4.02606487152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I73" s="1">
+        <v>20.793955452500001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74">
         <v>0.9</v>
@@ -2834,18 +3138,21 @@
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0.49825926287299999</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.53948074986200001</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>0.9</v>
@@ -2854,24 +3161,30 @@
         <v>29</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0.48517423238700003</v>
+        <v>0.51312657229799996</v>
       </c>
       <c r="H75" s="1">
-        <v>13.5939885898</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>0.9</v>
@@ -2880,24 +3193,30 @@
         <v>49</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F76" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>0.48946420137199997</v>
+        <v>0.512862993268</v>
       </c>
       <c r="H76" s="1">
-        <v>5.0562916086899996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>0.9</v>
@@ -2906,24 +3225,30 @@
         <v>69</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F77" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0.49238691702999998</v>
+        <v>0.50824130016500002</v>
       </c>
       <c r="H77" s="1">
-        <v>4.3082386436100002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>0.9</v>
@@ -2932,24 +3257,27 @@
         <v>89</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G78" s="1">
-        <v>0.47955480319900001</v>
+        <v>0.50574154544600003</v>
       </c>
       <c r="H78" s="1">
-        <v>4.4740763255799996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I78" s="1">
+        <v>22.8460962172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>0.9</v>
@@ -2958,24 +3286,27 @@
         <v>109</v>
       </c>
       <c r="D79">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F79" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G79" s="1">
-        <v>0.48008206180500002</v>
+        <v>0.50835298582499999</v>
       </c>
       <c r="H79" s="1">
-        <v>4.2112730775899996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I79" s="1">
+        <v>25.153214811600002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>0.9</v>
@@ -2984,24 +3315,27 @@
         <v>129</v>
       </c>
       <c r="D80">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F80" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G80" s="1">
-        <v>0.48491337774600002</v>
+        <v>0.507114618061</v>
       </c>
       <c r="H80" s="1">
-        <v>4.32464019864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I80" s="1">
+        <v>27.430539857900001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>0.9</v>
@@ -3010,24 +3344,27 @@
         <v>149</v>
       </c>
       <c r="D81">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G81" s="1">
-        <v>0.48909021262500002</v>
+        <v>0.50900546289500004</v>
       </c>
       <c r="H81" s="1">
-        <v>4.0486698526799998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I81" s="1">
+        <v>20.768317879800001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3045,18 +3382,21 @@
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0.51769399642900005</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.56962299346900003</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.52096311251299998</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3065,24 +3405,30 @@
         <v>29</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1">
-        <v>3.4482758620700001E-2</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H83" s="1">
-        <v>12.7400607784</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.51357848890900004</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3091,24 +3437,30 @@
         <v>49</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F84" s="1">
-        <v>0.24489795918400001</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H84" s="1">
-        <v>4.7805725993000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.51263255975699995</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3117,24 +3469,30 @@
         <v>69</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F85" s="1">
-        <v>0.33333333333300003</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H85" s="1">
-        <v>4.0976336565400002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.51133836870600002</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3143,24 +3501,27 @@
         <v>89</v>
       </c>
       <c r="D86">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1">
-        <v>0.32584269662900001</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G86" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H86" s="1">
-        <v>4.14446527603</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.51019022952399995</v>
+      </c>
+      <c r="I86" s="1">
+        <v>20.283977544399999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3169,24 +3530,27 @@
         <v>109</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F87" s="1">
-        <v>0.36697247706399999</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G87" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H87" s="1">
-        <v>3.9053121648300002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.51015462477999995</v>
+      </c>
+      <c r="I87" s="1">
+        <v>22.447675039700002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3195,24 +3559,27 @@
         <v>129</v>
       </c>
       <c r="D88">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F88" s="1">
-        <v>0.34108527131799998</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G88" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H88" s="1">
-        <v>4.0508020195799999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.50995102524799996</v>
+      </c>
+      <c r="I88" s="1">
+        <v>24.4204112241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3221,19 +3588,22 @@
         <v>149</v>
       </c>
       <c r="D89">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="F89" s="1">
-        <v>0.38255033557000001</v>
+        <v>1.34228187919E-2</v>
       </c>
       <c r="G89" s="1">
-        <v>0.51769399642900005</v>
+        <v>0.56962299346900003</v>
       </c>
       <c r="H89" s="1">
-        <v>3.8249715328999998</v>
+        <v>0.50985098858300004</v>
+      </c>
+      <c r="I89" s="1">
+        <v>18.558217236899999</v>
       </c>
     </row>
   </sheetData>
